--- a/data/trans_orig/Hacinamiento_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Hacinamiento_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C35A57DF-1DBC-4C8A-97C8-A1BE3C475E46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7312078-9B06-4983-8DB0-2C4955ABFB66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D3A1EF9D-3CF3-4EB9-BDA2-93EBF4AE09A4}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{27F9C88E-DFC0-4A8E-8E65-C673AC89968A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="389">
   <si>
     <t>Hogares con dos o más personas por habitación en 2007 (Tasa respuesta: 99,71%)</t>
   </si>
@@ -77,10 +77,10 @@
     <t>2,78%</t>
   </si>
   <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
   </si>
   <si>
     <t>0,75%</t>
@@ -89,16 +89,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>4,25%</t>
+    <t>3,84%</t>
   </si>
   <si>
     <t>1,78%</t>
   </si>
   <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,16 +107,16 @@
     <t>97,22%</t>
   </si>
   <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
   </si>
   <si>
     <t>99,25%</t>
   </si>
   <si>
-    <t>95,75%</t>
+    <t>96,16%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -125,10 +125,10 @@
     <t>98,22%</t>
   </si>
   <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,1096 +140,1072 @@
     <t>3,66%</t>
   </si>
   <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
   </si>
   <si>
     <t>6,22%</t>
   </si>
   <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Hogares con dos o más personas por habitación en 2012 (Tasa respuesta: 99,62%)</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>Hogares con dos o más personas por habitación en 2015 (Tasa respuesta: 99,47%)</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>Hogares con dos o más personas por habitación en 2023 (Tasa respuesta: 99,08%)</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
     <t>4,26%</t>
   </si>
   <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
   </si>
   <si>
     <t>95,74%</t>
   </si>
   <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Hogares con dos o más personas por habitación en 2012 (Tasa respuesta: 99,62%)</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>Hogares con dos o más personas por habitación en 2015 (Tasa respuesta: 99,47%)</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
   </si>
   <si>
     <t>2,06%</t>
   </si>
   <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
   </si>
   <si>
     <t>97,94%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>Hogares con dos o más personas por habitación en 2023 (Tasa respuesta: 99,08%)</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
   </si>
 </sst>
 </file>
@@ -1641,7 +1617,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6339E628-3872-4598-BA76-8307DE3DB7BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAEA02C2-4D80-4C14-9597-84BF5A3CDB93}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2093,10 +2069,10 @@
         <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>107</v>
@@ -2105,13 +2081,13 @@
         <v>119256</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2126,13 +2102,13 @@
         <v>901913</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>850</v>
@@ -2141,13 +2117,13 @@
         <v>902969</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="M11" s="7">
         <v>1692</v>
@@ -2156,13 +2132,13 @@
         <v>1804881</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2218,7 +2194,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2230,13 +2206,13 @@
         <v>24327</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>36</v>
@@ -2245,13 +2221,13 @@
         <v>38276</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>58</v>
@@ -2260,13 +2236,13 @@
         <v>62602</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2281,28 +2257,28 @@
         <v>653196</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>659</v>
       </c>
       <c r="I14" s="7">
-        <v>644766</v>
+        <v>644765</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>1277</v>
@@ -2311,13 +2287,13 @@
         <v>1297963</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2344,7 +2320,7 @@
         <v>695</v>
       </c>
       <c r="I15" s="7">
-        <v>683042</v>
+        <v>683041</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2373,7 +2349,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2385,13 +2361,13 @@
         <v>52650</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H16" s="7">
         <v>60</v>
@@ -2400,13 +2376,13 @@
         <v>62978</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M16" s="7">
         <v>112</v>
@@ -2415,13 +2391,13 @@
         <v>115628</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2433,16 +2409,16 @@
         <v>939</v>
       </c>
       <c r="D17" s="7">
-        <v>887035</v>
+        <v>887034</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H17" s="7">
         <v>932</v>
@@ -2451,13 +2427,13 @@
         <v>970712</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>1871</v>
@@ -2466,13 +2442,13 @@
         <v>1857747</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2484,7 +2460,7 @@
         <v>991</v>
       </c>
       <c r="D18" s="7">
-        <v>939685</v>
+        <v>939684</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2540,13 +2516,13 @@
         <v>157307</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H19" s="7">
         <v>188</v>
@@ -2555,13 +2531,13 @@
         <v>201060</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M19" s="7">
         <v>334</v>
@@ -2570,13 +2546,13 @@
         <v>358366</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2591,13 +2567,13 @@
         <v>3108815</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="H20" s="7">
         <v>3100</v>
@@ -2606,13 +2582,13 @@
         <v>3169222</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M20" s="7">
         <v>6158</v>
@@ -2621,13 +2597,13 @@
         <v>6278038</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2683,7 +2659,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2704,7 +2680,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{599A9719-7D1C-4BAC-9385-EB221DEDE024}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{326C0131-FB07-45E6-BA51-13F12A27BC41}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2721,7 +2697,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2828,13 +2804,13 @@
         <v>3189</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -2843,13 +2819,13 @@
         <v>3323</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -2858,13 +2834,13 @@
         <v>6512</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2879,13 +2855,13 @@
         <v>110812</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H5" s="7">
         <v>94</v>
@@ -2894,13 +2870,13 @@
         <v>106427</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M5" s="7">
         <v>210</v>
@@ -2909,13 +2885,13 @@
         <v>217239</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2986,10 +2962,10 @@
         <v>38</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H7" s="7">
         <v>25</v>
@@ -2998,13 +2974,13 @@
         <v>25632</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>145</v>
+        <v>35</v>
       </c>
       <c r="M7" s="7">
         <v>52</v>
@@ -3013,13 +2989,13 @@
         <v>54679</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>148</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3037,10 +3013,10 @@
         <v>47</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="H8" s="7">
         <v>524</v>
@@ -3049,28 +3025,28 @@
         <v>557385</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>152</v>
+        <v>44</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="M8" s="7">
         <v>1049</v>
       </c>
       <c r="N8" s="7">
-        <v>1116041</v>
+        <v>1116042</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>155</v>
+        <v>97</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3112,7 +3088,7 @@
         <v>1101</v>
       </c>
       <c r="N9" s="7">
-        <v>1170720</v>
+        <v>1170721</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3138,13 +3114,13 @@
         <v>45971</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="H10" s="7">
         <v>58</v>
@@ -3153,13 +3129,13 @@
         <v>62547</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="M10" s="7">
         <v>102</v>
@@ -3168,13 +3144,13 @@
         <v>108517</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3189,13 +3165,13 @@
         <v>968815</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="H11" s="7">
         <v>881</v>
@@ -3204,13 +3180,13 @@
         <v>968587</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="M11" s="7">
         <v>1770</v>
@@ -3219,13 +3195,13 @@
         <v>1937402</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3281,7 +3257,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3293,13 +3269,13 @@
         <v>45972</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="H13" s="7">
         <v>65</v>
@@ -3308,13 +3284,13 @@
         <v>72238</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="M13" s="7">
         <v>106</v>
@@ -3323,13 +3299,13 @@
         <v>118210</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3344,13 +3320,13 @@
         <v>706951</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="H14" s="7">
         <v>637</v>
@@ -3359,13 +3335,13 @@
         <v>700857</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="M14" s="7">
         <v>1281</v>
@@ -3374,13 +3350,13 @@
         <v>1407808</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3436,7 +3412,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3448,13 +3424,13 @@
         <v>38172</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="H16" s="7">
         <v>55</v>
@@ -3463,13 +3439,13 @@
         <v>55959</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="M16" s="7">
         <v>94</v>
@@ -3478,13 +3454,13 @@
         <v>94131</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3499,13 +3475,13 @@
         <v>906535</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="H17" s="7">
         <v>943</v>
@@ -3514,13 +3490,13 @@
         <v>990727</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="M17" s="7">
         <v>1811</v>
@@ -3529,13 +3505,13 @@
         <v>1897261</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3603,13 +3579,13 @@
         <v>162350</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>92</v>
+        <v>203</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>212</v>
+        <v>129</v>
       </c>
       <c r="H19" s="7">
         <v>206</v>
@@ -3618,13 +3594,13 @@
         <v>219699</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="M19" s="7">
         <v>361</v>
@@ -3633,13 +3609,13 @@
         <v>382049</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>217</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3654,13 +3630,13 @@
         <v>3251770</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>101</v>
+        <v>209</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>218</v>
+        <v>137</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="H20" s="7">
         <v>3079</v>
@@ -3669,13 +3645,13 @@
         <v>3323982</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="M20" s="7">
         <v>6121</v>
@@ -3684,13 +3660,13 @@
         <v>6575751</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>223</v>
+        <v>117</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3746,7 +3722,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -3767,7 +3743,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B95869B-A34C-427A-88C6-B3E725A21BBD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17DA22D0-F9DF-4DC5-B94D-4553E73D9CA5}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3784,7 +3760,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3891,13 +3867,13 @@
         <v>6324</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -3906,13 +3882,13 @@
         <v>3837</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -3921,13 +3897,13 @@
         <v>10161</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3942,13 +3918,13 @@
         <v>110222</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="H5" s="7">
         <v>111</v>
@@ -3957,10 +3933,10 @@
         <v>109523</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>24</v>
@@ -3972,13 +3948,13 @@
         <v>219745</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4046,13 +4022,13 @@
         <v>25328</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="H7" s="7">
         <v>24</v>
@@ -4061,13 +4037,13 @@
         <v>23627</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>245</v>
+        <v>87</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>246</v>
+        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="M7" s="7">
         <v>46</v>
@@ -4076,13 +4052,13 @@
         <v>48954</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>51</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4097,13 +4073,13 @@
         <v>531880</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="H8" s="7">
         <v>526</v>
@@ -4112,13 +4088,13 @@
         <v>535007</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>253</v>
+        <v>96</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>255</v>
+        <v>21</v>
       </c>
       <c r="M8" s="7">
         <v>1042</v>
@@ -4127,13 +4103,13 @@
         <v>1066888</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>60</v>
+        <v>244</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4201,13 +4177,13 @@
         <v>36943</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>260</v>
+        <v>106</v>
       </c>
       <c r="H10" s="7">
         <v>41</v>
@@ -4216,13 +4192,13 @@
         <v>41779</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M10" s="7">
         <v>73</v>
@@ -4231,13 +4207,13 @@
         <v>78722</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>199</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4252,13 +4228,13 @@
         <v>980868</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>267</v>
+        <v>115</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="H11" s="7">
         <v>933</v>
@@ -4267,13 +4243,13 @@
         <v>996888</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="M11" s="7">
         <v>1848</v>
@@ -4282,13 +4258,13 @@
         <v>1977756</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>208</v>
+        <v>260</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4344,7 +4320,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4356,13 +4332,13 @@
         <v>45410</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>36</v>
+        <v>263</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="H13" s="7">
         <v>48</v>
@@ -4371,13 +4347,13 @@
         <v>50681</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>56</v>
+        <v>267</v>
       </c>
       <c r="M13" s="7">
         <v>87</v>
@@ -4386,13 +4362,13 @@
         <v>96091</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>55</v>
+        <v>269</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4407,13 +4383,13 @@
         <v>709198</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>46</v>
+        <v>273</v>
       </c>
       <c r="H14" s="7">
         <v>684</v>
@@ -4422,13 +4398,13 @@
         <v>730139</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>64</v>
+        <v>275</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="M14" s="7">
         <v>1337</v>
@@ -4437,13 +4413,13 @@
         <v>1439337</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>65</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4499,7 +4475,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4511,13 +4487,13 @@
         <v>31119</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="H16" s="7">
         <v>38</v>
@@ -4526,13 +4502,13 @@
         <v>40392</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="M16" s="7">
         <v>70</v>
@@ -4541,13 +4517,13 @@
         <v>71510</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>292</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4562,13 +4538,13 @@
         <v>897713</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="H17" s="7">
         <v>912</v>
@@ -4577,13 +4553,13 @@
         <v>994338</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="M17" s="7">
         <v>1803</v>
@@ -4592,13 +4568,13 @@
         <v>1892052</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>300</v>
+        <v>239</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4666,13 +4642,13 @@
         <v>145123</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>304</v>
+        <v>269</v>
       </c>
       <c r="H19" s="7">
         <v>155</v>
@@ -4681,13 +4657,13 @@
         <v>160315</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="M19" s="7">
         <v>285</v>
@@ -4696,13 +4672,13 @@
         <v>305438</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4717,13 +4693,13 @@
         <v>3229881</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>311</v>
+        <v>279</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="H20" s="7">
         <v>3166</v>
@@ -4732,13 +4708,13 @@
         <v>3365896</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="M20" s="7">
         <v>6249</v>
@@ -4747,13 +4723,13 @@
         <v>6595778</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4809,7 +4785,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -4830,7 +4806,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF18B59D-FFCF-429C-8CDD-D43CA7898170}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59FD13E4-023E-47A9-8B92-3059DDAD1255}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4847,7 +4823,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4954,13 +4930,13 @@
         <v>1289</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4969,13 +4945,13 @@
         <v>416</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -4984,13 +4960,13 @@
         <v>1705</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>124</v>
+        <v>315</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>323</v>
+        <v>15</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5005,10 +4981,10 @@
         <v>98991</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>26</v>
@@ -5020,10 +4996,10 @@
         <v>128851</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>26</v>
@@ -5035,13 +5011,13 @@
         <v>227842</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>134</v>
+        <v>321</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>330</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5109,13 +5085,13 @@
         <v>7734</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="H7" s="7">
         <v>16</v>
@@ -5124,13 +5100,13 @@
         <v>11396</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>262</v>
+        <v>328</v>
       </c>
       <c r="M7" s="7">
         <v>22</v>
@@ -5139,13 +5115,13 @@
         <v>19130</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>227</v>
+        <v>329</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>129</v>
+        <v>331</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5160,13 +5136,13 @@
         <v>537683</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="H8" s="7">
         <v>977</v>
@@ -5175,13 +5151,13 @@
         <v>605114</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>271</v>
+        <v>336</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="M8" s="7">
         <v>1579</v>
@@ -5190,13 +5166,13 @@
         <v>1142797</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>236</v>
+        <v>338</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>138</v>
+        <v>339</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5264,13 +5240,13 @@
         <v>20708</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>345</v>
       </c>
       <c r="H10" s="7">
         <v>33</v>
@@ -5279,13 +5255,13 @@
         <v>21445</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>348</v>
+        <v>124</v>
       </c>
       <c r="M10" s="7">
         <v>56</v>
@@ -5294,13 +5270,13 @@
         <v>42153</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>351</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5315,13 +5291,13 @@
         <v>1009239</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="H11" s="7">
         <v>1466</v>
@@ -5330,13 +5306,13 @@
         <v>1026243</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>356</v>
+        <v>133</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="M11" s="7">
         <v>2399</v>
@@ -5345,13 +5321,13 @@
         <v>2035483</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>359</v>
+        <v>21</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5407,7 +5383,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5419,13 +5395,13 @@
         <v>21365</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>348</v>
+        <v>186</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>17</v>
+        <v>355</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>361</v>
+        <v>191</v>
       </c>
       <c r="H13" s="7">
         <v>42</v>
@@ -5434,13 +5410,13 @@
         <v>27478</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="M13" s="7">
         <v>67</v>
@@ -5449,13 +5425,13 @@
         <v>48843</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>367</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5467,16 +5443,16 @@
         <v>649</v>
       </c>
       <c r="D14" s="7">
-        <v>703908</v>
+        <v>703907</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>356</v>
+        <v>196</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>368</v>
+        <v>200</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>27</v>
+        <v>360</v>
       </c>
       <c r="H14" s="7">
         <v>994</v>
@@ -5485,13 +5461,13 @@
         <v>838353</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="M14" s="7">
         <v>1643</v>
@@ -5500,13 +5476,13 @@
         <v>1542261</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>373</v>
+        <v>46</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5518,7 +5494,7 @@
         <v>674</v>
       </c>
       <c r="D15" s="7">
-        <v>725273</v>
+        <v>725272</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5562,7 +5538,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5574,13 +5550,13 @@
         <v>27735</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>375</v>
+        <v>287</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>376</v>
+        <v>355</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>377</v>
+        <v>296</v>
       </c>
       <c r="H16" s="7">
         <v>47</v>
@@ -5589,13 +5565,13 @@
         <v>34248</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>262</v>
+        <v>365</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="M16" s="7">
         <v>75</v>
@@ -5604,13 +5580,13 @@
         <v>61983</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>265</v>
+        <v>368</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5625,13 +5601,13 @@
         <v>927461</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>381</v>
+        <v>295</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>382</v>
+        <v>303</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>383</v>
+        <v>360</v>
       </c>
       <c r="H17" s="7">
         <v>1500</v>
@@ -5640,13 +5616,13 @@
         <v>1103178</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>271</v>
+        <v>371</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="M17" s="7">
         <v>2466</v>
@@ -5655,13 +5631,13 @@
         <v>2030638</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>273</v>
+        <v>374</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>314</v>
+        <v>375</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5729,13 +5705,13 @@
         <v>78831</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>265</v>
+        <v>365</v>
       </c>
       <c r="H19" s="7">
         <v>139</v>
@@ -5744,13 +5720,13 @@
         <v>94983</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="M19" s="7">
         <v>222</v>
@@ -5759,13 +5735,13 @@
         <v>173814</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>232</v>
+        <v>382</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5780,28 +5756,28 @@
         <v>3277281</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>273</v>
+        <v>371</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="H20" s="7">
         <v>5176</v>
       </c>
       <c r="I20" s="7">
-        <v>3701740</v>
+        <v>3701739</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="M20" s="7">
         <v>8441</v>
@@ -5810,13 +5786,13 @@
         <v>6979020</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>241</v>
+        <v>388</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5843,7 +5819,7 @@
         <v>5315</v>
       </c>
       <c r="I21" s="7">
-        <v>3796723</v>
+        <v>3796722</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -5872,7 +5848,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Hacinamiento_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Hacinamiento_R-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7312078-9B06-4983-8DB0-2C4955ABFB66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE8C5547-9B33-4304-A358-4085E7056239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{27F9C88E-DFC0-4A8E-8E65-C673AC89968A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8CB164EA-9287-4F10-98DB-3F6CF0679E86}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="379">
   <si>
     <t>Hogares con dos o más personas por habitación en 2007 (Tasa respuesta: 99,71%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -80,7 +80,7 @@
     <t>0,87%</t>
   </si>
   <si>
-    <t>7,45%</t>
+    <t>7,67%</t>
   </si>
   <si>
     <t>0,75%</t>
@@ -89,7 +89,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>3,84%</t>
+    <t>4,64%</t>
   </si>
   <si>
     <t>1,78%</t>
@@ -98,7 +98,7 @@
     <t>0,47%</t>
   </si>
   <si>
-    <t>4,49%</t>
+    <t>3,99%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,7 +107,7 @@
     <t>97,22%</t>
   </si>
   <si>
-    <t>92,55%</t>
+    <t>92,33%</t>
   </si>
   <si>
     <t>99,13%</t>
@@ -116,7 +116,7 @@
     <t>99,25%</t>
   </si>
   <si>
-    <t>96,16%</t>
+    <t>95,36%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -125,7 +125,7 @@
     <t>98,22%</t>
   </si>
   <si>
-    <t>95,51%</t>
+    <t>96,01%</t>
   </si>
   <si>
     <t>99,53%</t>
@@ -134,1011 +134,984 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>3,66%</t>
   </si>
   <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
   </si>
   <si>
     <t>6,22%</t>
   </si>
   <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Hogares con dos o más personas por habitación en 2012 (Tasa respuesta: 99,62%)</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>Hogares con dos o más personas por habitación en 2016 (Tasa respuesta: 99,47%)</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>Hogares con dos o más personas por habitación en 2023 (Tasa respuesta: 99,08%)</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
     <t>4,17%</t>
   </si>
   <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
   </si>
   <si>
     <t>95,83%</t>
   </si>
   <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Hogares con dos o más personas por habitación en 2012 (Tasa respuesta: 99,62%)</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>Hogares con dos o más personas por habitación en 2015 (Tasa respuesta: 99,47%)</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>Hogares con dos o más personas por habitación en 2023 (Tasa respuesta: 99,08%)</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
     <t>97,81%</t>
   </si>
   <si>
-    <t>3,01%</t>
-  </si>
-  <si>
     <t>2,22%</t>
   </si>
   <si>
@@ -1152,9 +1125,6 @@
   </si>
   <si>
     <t>3,8%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
   </si>
   <si>
     <t>95,74%</t>
@@ -1617,7 +1587,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAEA02C2-4D80-4C14-9597-84BF5A3CDB93}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44045C6F-C4F2-4176-86BD-EADB633FA84E}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2057,7 +2027,7 @@
         <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="H10" s="7">
         <v>56</v>
@@ -2066,10 +2036,10 @@
         <v>63226</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>55</v>
@@ -2105,10 +2075,10 @@
         <v>59</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="H11" s="7">
         <v>850</v>
@@ -2117,13 +2087,13 @@
         <v>902969</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="M11" s="7">
         <v>1692</v>
@@ -2409,7 +2379,7 @@
         <v>939</v>
       </c>
       <c r="D17" s="7">
-        <v>887034</v>
+        <v>887035</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>80</v>
@@ -2460,7 +2430,7 @@
         <v>991</v>
       </c>
       <c r="D18" s="7">
-        <v>939684</v>
+        <v>939685</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2519,10 +2489,10 @@
         <v>103</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H19" s="7">
         <v>188</v>
@@ -2531,13 +2501,13 @@
         <v>201060</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M19" s="7">
         <v>334</v>
@@ -2546,10 +2516,10 @@
         <v>358366</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>110</v>
@@ -2573,7 +2543,7 @@
         <v>112</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="H20" s="7">
         <v>3100</v>
@@ -2582,13 +2552,13 @@
         <v>3169222</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M20" s="7">
         <v>6158</v>
@@ -2597,13 +2567,13 @@
         <v>6278038</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2680,7 +2650,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{326C0131-FB07-45E6-BA51-13F12A27BC41}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D272932-0D20-4597-A813-1F38E97DBF58}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2840,7 +2810,7 @@
         <v>128</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>129</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2855,13 +2825,13 @@
         <v>110812</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="H5" s="7">
         <v>94</v>
@@ -2870,13 +2840,13 @@
         <v>106427</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M5" s="7">
         <v>210</v>
@@ -2885,13 +2855,13 @@
         <v>217239</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2962,10 +2932,10 @@
         <v>38</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H7" s="7">
         <v>25</v>
@@ -2974,13 +2944,13 @@
         <v>25632</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="M7" s="7">
         <v>52</v>
@@ -2989,13 +2959,13 @@
         <v>54679</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3028,10 +2998,10 @@
         <v>147</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>148</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M8" s="7">
         <v>1049</v>
@@ -3040,13 +3010,13 @@
         <v>1116042</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>97</v>
+        <v>151</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3114,13 +3084,13 @@
         <v>45971</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H10" s="7">
         <v>58</v>
@@ -3129,13 +3099,13 @@
         <v>62547</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>155</v>
+        <v>74</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M10" s="7">
         <v>102</v>
@@ -3144,13 +3114,13 @@
         <v>108517</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3165,13 +3135,13 @@
         <v>968815</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H11" s="7">
         <v>881</v>
@@ -3180,13 +3150,13 @@
         <v>968587</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>165</v>
+        <v>83</v>
       </c>
       <c r="M11" s="7">
         <v>1770</v>
@@ -3305,7 +3275,7 @@
         <v>176</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3320,13 +3290,13 @@
         <v>706951</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H14" s="7">
         <v>637</v>
@@ -3335,13 +3305,13 @@
         <v>700857</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M14" s="7">
         <v>1281</v>
@@ -3350,13 +3320,13 @@
         <v>1407808</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3424,13 +3394,13 @@
         <v>38172</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H16" s="7">
         <v>55</v>
@@ -3439,13 +3409,13 @@
         <v>55959</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M16" s="7">
         <v>94</v>
@@ -3454,13 +3424,13 @@
         <v>94131</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>191</v>
+        <v>90</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3475,13 +3445,13 @@
         <v>906535</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H17" s="7">
         <v>943</v>
@@ -3490,13 +3460,13 @@
         <v>990727</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M17" s="7">
         <v>1811</v>
@@ -3505,7 +3475,7 @@
         <v>1897261</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>200</v>
+        <v>99</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>201</v>
@@ -3582,10 +3552,10 @@
         <v>203</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H19" s="7">
         <v>206</v>
@@ -3597,10 +3567,10 @@
         <v>56</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="M19" s="7">
         <v>361</v>
@@ -3609,13 +3579,13 @@
         <v>382049</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="P19" s="7" t="s">
-        <v>208</v>
-      </c>
       <c r="Q19" s="7" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3630,28 +3600,28 @@
         <v>3251770</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>137</v>
-      </c>
       <c r="G20" s="7" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="H20" s="7">
         <v>3079</v>
       </c>
       <c r="I20" s="7">
-        <v>3323982</v>
+        <v>3323981</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>64</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>212</v>
+        <v>117</v>
       </c>
       <c r="M20" s="7">
         <v>6121</v>
@@ -3660,13 +3630,13 @@
         <v>6575751</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3693,7 +3663,7 @@
         <v>3285</v>
       </c>
       <c r="I21" s="7">
-        <v>3543681</v>
+        <v>3543680</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -3743,7 +3713,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17DA22D0-F9DF-4DC5-B94D-4553E73D9CA5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9608BC9F-568F-49B2-87CE-3A640356E242}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3760,7 +3730,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3867,13 +3837,13 @@
         <v>6324</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -3882,13 +3852,13 @@
         <v>3837</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>219</v>
+        <v>154</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>217</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -3897,13 +3867,13 @@
         <v>10161</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3918,13 +3888,13 @@
         <v>110222</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="H5" s="7">
         <v>111</v>
@@ -3933,13 +3903,13 @@
         <v>109523</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>227</v>
+        <v>163</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>24</v>
+        <v>226</v>
       </c>
       <c r="M5" s="7">
         <v>219</v>
@@ -3948,13 +3918,13 @@
         <v>219745</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4022,13 +3992,13 @@
         <v>25328</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="H7" s="7">
         <v>24</v>
@@ -4037,10 +4007,10 @@
         <v>23627</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>87</v>
+        <v>233</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>234</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>235</v>
@@ -4088,13 +4058,13 @@
         <v>535007</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>96</v>
+        <v>242</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>21</v>
+        <v>244</v>
       </c>
       <c r="M8" s="7">
         <v>1042</v>
@@ -4103,13 +4073,13 @@
         <v>1066888</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4177,13 +4147,13 @@
         <v>36943</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>106</v>
+        <v>250</v>
       </c>
       <c r="H10" s="7">
         <v>41</v>
@@ -4192,13 +4162,13 @@
         <v>41779</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>249</v>
+        <v>140</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M10" s="7">
         <v>73</v>
@@ -4207,13 +4177,13 @@
         <v>78722</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>251</v>
+        <v>193</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>253</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4231,10 +4201,10 @@
         <v>254</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>115</v>
+        <v>255</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H11" s="7">
         <v>933</v>
@@ -4243,13 +4213,13 @@
         <v>996888</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>258</v>
+        <v>149</v>
       </c>
       <c r="M11" s="7">
         <v>1848</v>
@@ -4258,13 +4228,13 @@
         <v>1977756</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4332,13 +4302,13 @@
         <v>45410</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>262</v>
+        <v>110</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>264</v>
+        <v>221</v>
       </c>
       <c r="H13" s="7">
         <v>48</v>
@@ -4347,13 +4317,13 @@
         <v>50681</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="M13" s="7">
         <v>87</v>
@@ -4362,13 +4332,13 @@
         <v>96091</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>269</v>
+        <v>57</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4383,13 +4353,13 @@
         <v>709198</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>271</v>
+        <v>118</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>272</v>
+        <v>228</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="H14" s="7">
         <v>684</v>
@@ -4398,13 +4368,13 @@
         <v>730139</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="M14" s="7">
         <v>1337</v>
@@ -4413,13 +4383,13 @@
         <v>1439337</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>279</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4487,13 +4457,13 @@
         <v>31119</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="H16" s="7">
         <v>38</v>
@@ -4502,13 +4472,13 @@
         <v>40392</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="M16" s="7">
         <v>70</v>
@@ -4517,13 +4487,13 @@
         <v>71510</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>232</v>
+        <v>280</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4538,13 +4508,13 @@
         <v>897713</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="H17" s="7">
         <v>912</v>
@@ -4553,13 +4523,13 @@
         <v>994338</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="M17" s="7">
         <v>1803</v>
@@ -4568,13 +4538,13 @@
         <v>1892052</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>239</v>
+        <v>288</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4642,13 +4612,13 @@
         <v>145123</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>297</v>
+        <v>248</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>269</v>
+        <v>57</v>
       </c>
       <c r="H19" s="7">
         <v>155</v>
@@ -4657,13 +4627,13 @@
         <v>160315</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="M19" s="7">
         <v>285</v>
@@ -4672,13 +4642,13 @@
         <v>305438</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>302</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4693,13 +4663,13 @@
         <v>3229881</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>279</v>
+        <v>66</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>304</v>
+        <v>254</v>
       </c>
       <c r="H20" s="7">
         <v>3166</v>
@@ -4711,10 +4681,10 @@
         <v>239</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="M20" s="7">
         <v>6249</v>
@@ -4723,13 +4693,13 @@
         <v>6595778</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>308</v>
+        <v>102</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4806,7 +4776,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59FD13E4-023E-47A9-8B92-3059DDAD1255}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FC10152-8048-4F7D-B631-730465FD1DE5}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4823,7 +4793,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4930,13 +4900,13 @@
         <v>1289</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4945,13 +4915,13 @@
         <v>416</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -4960,13 +4930,13 @@
         <v>1705</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4981,10 +4951,10 @@
         <v>98991</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>26</v>
@@ -4996,10 +4966,10 @@
         <v>128851</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>26</v>
@@ -5011,10 +4981,10 @@
         <v>227842</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>26</v>
@@ -5085,13 +5055,13 @@
         <v>7734</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>325</v>
+        <v>191</v>
       </c>
       <c r="H7" s="7">
         <v>16</v>
@@ -5100,13 +5070,13 @@
         <v>11396</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="M7" s="7">
         <v>22</v>
@@ -5115,13 +5085,13 @@
         <v>19130</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5136,13 +5106,13 @@
         <v>537683</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>333</v>
+        <v>200</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="H8" s="7">
         <v>977</v>
@@ -5151,13 +5121,13 @@
         <v>605114</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="M8" s="7">
         <v>1579</v>
@@ -5166,13 +5136,13 @@
         <v>1142797</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5240,13 +5210,13 @@
         <v>20708</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="H10" s="7">
         <v>33</v>
@@ -5255,10 +5225,10 @@
         <v>21445</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>124</v>
@@ -5270,10 +5240,10 @@
         <v>42153</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>11</v>
@@ -5291,13 +5261,13 @@
         <v>1009239</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="H11" s="7">
         <v>1466</v>
@@ -5306,13 +5276,13 @@
         <v>1026243</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="M11" s="7">
         <v>2399</v>
@@ -5321,13 +5291,13 @@
         <v>2035483</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5395,13 +5365,13 @@
         <v>21365</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>191</v>
+        <v>90</v>
       </c>
       <c r="H13" s="7">
         <v>42</v>
@@ -5410,13 +5380,13 @@
         <v>27478</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="M13" s="7">
         <v>67</v>
@@ -5425,13 +5395,13 @@
         <v>48843</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>36</v>
+        <v>349</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5446,13 +5416,13 @@
         <v>703907</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>196</v>
+        <v>350</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>200</v>
+        <v>99</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="H14" s="7">
         <v>994</v>
@@ -5461,13 +5431,13 @@
         <v>838353</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="M14" s="7">
         <v>1643</v>
@@ -5476,13 +5446,13 @@
         <v>1542261</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>46</v>
+        <v>355</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5550,13 +5520,13 @@
         <v>27735</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>287</v>
+        <v>188</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="H16" s="7">
         <v>47</v>
@@ -5565,13 +5535,13 @@
         <v>34248</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>365</v>
+        <v>140</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="M16" s="7">
         <v>75</v>
@@ -5580,13 +5550,13 @@
         <v>61983</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5601,13 +5571,13 @@
         <v>927461</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>303</v>
-      </c>
       <c r="G17" s="7" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="H17" s="7">
         <v>1500</v>
@@ -5616,13 +5586,13 @@
         <v>1103178</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>371</v>
+        <v>149</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="M17" s="7">
         <v>2466</v>
@@ -5631,13 +5601,13 @@
         <v>2030638</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5705,13 +5675,13 @@
         <v>78831</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>365</v>
+        <v>140</v>
       </c>
       <c r="H19" s="7">
         <v>139</v>
@@ -5720,13 +5690,13 @@
         <v>94983</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="M19" s="7">
         <v>222</v>
@@ -5735,13 +5705,13 @@
         <v>173814</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5756,13 +5726,13 @@
         <v>3277281</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>371</v>
+        <v>149</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="H20" s="7">
         <v>5176</v>
@@ -5771,13 +5741,13 @@
         <v>3701739</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="M20" s="7">
         <v>8441</v>
@@ -5786,13 +5756,13 @@
         <v>6979020</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/Hacinamiento_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Hacinamiento_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE8C5547-9B33-4304-A358-4085E7056239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{48FB26FE-1E82-43BC-A914-875947880987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8CB164EA-9287-4F10-98DB-3F6CF0679E86}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C0DCDD9E-883D-4E0C-84B3-7FA6DF0DEBE8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="397">
   <si>
     <t>Hogares con dos o más personas por habitación en 2007 (Tasa respuesta: 99,71%)</t>
   </si>
@@ -77,10 +77,10 @@
     <t>2,78%</t>
   </si>
   <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
   </si>
   <si>
     <t>0,75%</t>
@@ -89,1093 +89,1147 @@
     <t>0,0%</t>
   </si>
   <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Hogares con dos o más personas por habitación en 2012 (Tasa respuesta: 99,62%)</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>Hogares con dos o más personas por habitación en 2016 (Tasa respuesta: 99,47%)</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
     <t>4,64%</t>
   </si>
   <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
   </si>
   <si>
     <t>95,36%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Hogares con dos o más personas por habitación en 2012 (Tasa respuesta: 99,62%)</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>Hogares con dos o más personas por habitación en 2023 (Tasa respuesta: 99,08%)</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
   </si>
   <si>
     <t>2,9%</t>
   </si>
   <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
   </si>
   <si>
     <t>97,1%</t>
   </si>
   <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>Hogares con dos o más personas por habitación en 2016 (Tasa respuesta: 99,47%)</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>Hogares con dos o más personas por habitación en 2023 (Tasa respuesta: 99,08%)</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
   </si>
   <si>
     <t>2,35%</t>
   </si>
   <si>
-    <t>1,81%</t>
+    <t>1,83%</t>
   </si>
   <si>
     <t>2,5%</t>
   </si>
   <si>
-    <t>3,04%</t>
+    <t>3,11%</t>
   </si>
   <si>
     <t>2,43%</t>
   </si>
   <si>
-    <t>2,06%</t>
-  </si>
-  <si>
     <t>97,65%</t>
   </si>
   <si>
-    <t>98,19%</t>
+    <t>98,17%</t>
   </si>
   <si>
     <t>97,5%</t>
   </si>
   <si>
-    <t>96,96%</t>
+    <t>96,89%</t>
   </si>
   <si>
     <t>97,57%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
   </si>
 </sst>
 </file>
@@ -1587,7 +1641,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44045C6F-C4F2-4176-86BD-EADB633FA84E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE33B239-AE8E-4D8B-9407-5B38D1D43EC6}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2027,7 +2081,7 @@
         <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>56</v>
@@ -2036,13 +2090,13 @@
         <v>63226</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>107</v>
@@ -2051,13 +2105,13 @@
         <v>119256</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2072,13 +2126,13 @@
         <v>901913</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>850</v>
@@ -2087,13 +2141,13 @@
         <v>902969</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1692</v>
@@ -2102,13 +2156,13 @@
         <v>1804881</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2164,7 +2218,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2176,13 +2230,13 @@
         <v>24327</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>36</v>
@@ -2191,13 +2245,13 @@
         <v>38276</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>58</v>
@@ -2206,13 +2260,13 @@
         <v>62602</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2227,28 +2281,28 @@
         <v>653196</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>659</v>
       </c>
       <c r="I14" s="7">
-        <v>644765</v>
+        <v>644766</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>1277</v>
@@ -2257,13 +2311,13 @@
         <v>1297963</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2290,7 +2344,7 @@
         <v>695</v>
       </c>
       <c r="I15" s="7">
-        <v>683041</v>
+        <v>683042</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2319,7 +2373,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2331,13 +2385,13 @@
         <v>52650</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H16" s="7">
         <v>60</v>
@@ -2346,13 +2400,13 @@
         <v>62978</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
         <v>112</v>
@@ -2361,13 +2415,13 @@
         <v>115628</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2382,13 +2436,13 @@
         <v>887035</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H17" s="7">
         <v>932</v>
@@ -2397,13 +2451,13 @@
         <v>970712</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>1871</v>
@@ -2412,13 +2466,13 @@
         <v>1857747</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2486,13 +2540,13 @@
         <v>157307</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H19" s="7">
         <v>188</v>
@@ -2501,13 +2555,13 @@
         <v>201060</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M19" s="7">
         <v>334</v>
@@ -2516,13 +2570,13 @@
         <v>358366</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2537,13 +2591,13 @@
         <v>3108815</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H20" s="7">
         <v>3100</v>
@@ -2552,13 +2606,13 @@
         <v>3169222</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M20" s="7">
         <v>6158</v>
@@ -2567,13 +2621,13 @@
         <v>6278038</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2629,7 +2683,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2650,7 +2704,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D272932-0D20-4597-A813-1F38E97DBF58}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{193BE4BE-7331-4466-A563-3187E473F1ED}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2667,7 +2721,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2774,13 +2828,13 @@
         <v>3189</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -2789,13 +2843,13 @@
         <v>3323</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -2804,13 +2858,13 @@
         <v>6512</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>51</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2825,13 +2879,13 @@
         <v>110812</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="H5" s="7">
         <v>94</v>
@@ -2840,13 +2894,13 @@
         <v>106427</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="M5" s="7">
         <v>210</v>
@@ -2855,13 +2909,13 @@
         <v>217239</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>59</v>
+        <v>139</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2932,10 +2986,10 @@
         <v>38</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H7" s="7">
         <v>25</v>
@@ -2944,13 +2998,13 @@
         <v>25632</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="M7" s="7">
         <v>52</v>
@@ -2959,13 +3013,13 @@
         <v>54679</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2983,10 +3037,10 @@
         <v>47</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="H8" s="7">
         <v>524</v>
@@ -2995,28 +3049,28 @@
         <v>557385</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="M8" s="7">
         <v>1049</v>
       </c>
       <c r="N8" s="7">
-        <v>1116042</v>
+        <v>1116041</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3058,7 +3112,7 @@
         <v>1101</v>
       </c>
       <c r="N9" s="7">
-        <v>1170721</v>
+        <v>1170720</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3084,13 +3138,13 @@
         <v>45971</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="H10" s="7">
         <v>58</v>
@@ -3099,13 +3153,13 @@
         <v>62547</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>74</v>
+        <v>161</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="M10" s="7">
         <v>102</v>
@@ -3114,13 +3168,13 @@
         <v>108517</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3135,13 +3189,13 @@
         <v>968815</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="H11" s="7">
         <v>881</v>
@@ -3150,13 +3204,13 @@
         <v>968587</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>83</v>
+        <v>171</v>
       </c>
       <c r="M11" s="7">
         <v>1770</v>
@@ -3165,13 +3219,13 @@
         <v>1937402</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3227,7 +3281,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3239,13 +3293,13 @@
         <v>45972</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="H13" s="7">
         <v>65</v>
@@ -3254,13 +3308,13 @@
         <v>72238</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="M13" s="7">
         <v>106</v>
@@ -3269,13 +3323,13 @@
         <v>118210</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3290,13 +3344,13 @@
         <v>706951</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="H14" s="7">
         <v>637</v>
@@ -3305,13 +3359,13 @@
         <v>700857</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="M14" s="7">
         <v>1281</v>
@@ -3320,13 +3374,13 @@
         <v>1407808</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3382,7 +3436,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3394,13 +3448,13 @@
         <v>38172</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="H16" s="7">
         <v>55</v>
@@ -3409,13 +3463,13 @@
         <v>55959</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="M16" s="7">
         <v>94</v>
@@ -3424,13 +3478,13 @@
         <v>94131</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>90</v>
+        <v>199</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3445,13 +3499,13 @@
         <v>906535</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="H17" s="7">
         <v>943</v>
@@ -3460,13 +3514,13 @@
         <v>990727</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="M17" s="7">
         <v>1811</v>
@@ -3475,13 +3529,13 @@
         <v>1897261</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>99</v>
+        <v>208</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3549,13 +3603,13 @@
         <v>162350</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>203</v>
+        <v>92</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="H19" s="7">
         <v>206</v>
@@ -3564,13 +3618,13 @@
         <v>219699</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>109</v>
+        <v>213</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="M19" s="7">
         <v>361</v>
@@ -3579,13 +3633,13 @@
         <v>382049</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>89</v>
+        <v>217</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3600,28 +3654,28 @@
         <v>3251770</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>208</v>
+        <v>101</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="H20" s="7">
         <v>3079</v>
       </c>
       <c r="I20" s="7">
-        <v>3323981</v>
+        <v>3323982</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>117</v>
+        <v>221</v>
       </c>
       <c r="M20" s="7">
         <v>6121</v>
@@ -3630,13 +3684,13 @@
         <v>6575751</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>97</v>
+        <v>223</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3663,7 +3717,7 @@
         <v>3285</v>
       </c>
       <c r="I21" s="7">
-        <v>3543680</v>
+        <v>3543681</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -3692,7 +3746,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3713,7 +3767,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9608BC9F-568F-49B2-87CE-3A640356E242}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF55E2FF-9121-4E05-8178-F51F16864C2E}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3730,7 +3784,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3837,13 +3891,13 @@
         <v>6324</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -3852,13 +3906,13 @@
         <v>3837</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>154</v>
+        <v>229</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>217</v>
+        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -3867,13 +3921,13 @@
         <v>10161</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3888,13 +3942,13 @@
         <v>110222</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="H5" s="7">
         <v>111</v>
@@ -3903,13 +3957,13 @@
         <v>109523</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>163</v>
+        <v>237</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>226</v>
+        <v>24</v>
       </c>
       <c r="M5" s="7">
         <v>219</v>
@@ -3918,13 +3972,13 @@
         <v>219745</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3992,13 +4046,13 @@
         <v>25328</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="H7" s="7">
         <v>24</v>
@@ -4007,13 +4061,13 @@
         <v>23627</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="M7" s="7">
         <v>46</v>
@@ -4022,13 +4076,13 @@
         <v>48954</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>238</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4043,13 +4097,13 @@
         <v>531880</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="H8" s="7">
         <v>526</v>
@@ -4058,13 +4112,13 @@
         <v>535007</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="M8" s="7">
         <v>1042</v>
@@ -4073,13 +4127,13 @@
         <v>1066888</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>246</v>
+        <v>60</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4147,13 +4201,13 @@
         <v>36943</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="H10" s="7">
         <v>41</v>
@@ -4162,13 +4216,13 @@
         <v>41779</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>140</v>
+        <v>262</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="M10" s="7">
         <v>73</v>
@@ -4177,13 +4231,13 @@
         <v>78722</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>193</v>
+        <v>264</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4198,13 +4252,13 @@
         <v>980868</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="H11" s="7">
         <v>933</v>
@@ -4213,13 +4267,13 @@
         <v>996888</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>149</v>
+        <v>271</v>
       </c>
       <c r="M11" s="7">
         <v>1848</v>
@@ -4228,13 +4282,13 @@
         <v>1977756</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>202</v>
+        <v>272</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>208</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4290,7 +4344,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4302,13 +4356,13 @@
         <v>45410</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>110</v>
+        <v>247</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>260</v>
+        <v>36</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>221</v>
+        <v>274</v>
       </c>
       <c r="H13" s="7">
         <v>48</v>
@@ -4317,13 +4371,13 @@
         <v>50681</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>263</v>
+        <v>56</v>
       </c>
       <c r="M13" s="7">
         <v>87</v>
@@ -4332,13 +4386,13 @@
         <v>96091</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4353,13 +4407,13 @@
         <v>709198</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>118</v>
+        <v>254</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>228</v>
+        <v>279</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>266</v>
+        <v>46</v>
       </c>
       <c r="H14" s="7">
         <v>684</v>
@@ -4368,13 +4422,13 @@
         <v>730139</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>268</v>
+        <v>64</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="M14" s="7">
         <v>1337</v>
@@ -4383,13 +4437,13 @@
         <v>1439337</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4445,7 +4499,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4457,13 +4511,13 @@
         <v>31119</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="H16" s="7">
         <v>38</v>
@@ -4472,13 +4526,13 @@
         <v>40392</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="M16" s="7">
         <v>70</v>
@@ -4487,13 +4541,13 @@
         <v>71510</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4508,13 +4562,13 @@
         <v>897713</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="H17" s="7">
         <v>912</v>
@@ -4523,13 +4577,13 @@
         <v>994338</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="M17" s="7">
         <v>1803</v>
@@ -4538,13 +4592,13 @@
         <v>1892052</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4612,13 +4666,13 @@
         <v>145123</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>248</v>
+        <v>303</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>57</v>
+        <v>304</v>
       </c>
       <c r="H19" s="7">
         <v>155</v>
@@ -4627,13 +4681,13 @@
         <v>160315</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="M19" s="7">
         <v>285</v>
@@ -4642,13 +4696,13 @@
         <v>305438</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>93</v>
+        <v>309</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4663,13 +4717,13 @@
         <v>3229881</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>66</v>
+        <v>311</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>254</v>
+        <v>312</v>
       </c>
       <c r="H20" s="7">
         <v>3166</v>
@@ -4678,13 +4732,13 @@
         <v>3365896</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="M20" s="7">
         <v>6249</v>
@@ -4693,13 +4747,13 @@
         <v>6595778</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>102</v>
+        <v>316</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>299</v>
+        <v>317</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4755,7 +4809,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -4776,7 +4830,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FC10152-8048-4F7D-B631-730465FD1DE5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C55FBA1-F7F4-4927-831D-37688DA2706E}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4793,7 +4847,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>300</v>
+        <v>318</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4900,13 +4954,13 @@
         <v>1289</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>301</v>
+        <v>319</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>302</v>
+        <v>320</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4915,13 +4969,13 @@
         <v>416</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>303</v>
+        <v>321</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>304</v>
+        <v>322</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -4930,13 +4984,13 @@
         <v>1705</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>305</v>
+        <v>124</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>15</v>
+        <v>323</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>306</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4951,10 +5005,10 @@
         <v>98991</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>307</v>
+        <v>325</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>26</v>
@@ -4966,10 +5020,10 @@
         <v>128851</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>309</v>
+        <v>327</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>310</v>
+        <v>328</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>26</v>
@@ -4981,13 +5035,13 @@
         <v>227842</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>311</v>
+        <v>134</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>26</v>
+        <v>330</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5055,13 +5109,13 @@
         <v>7734</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>314</v>
+        <v>332</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>191</v>
+        <v>333</v>
       </c>
       <c r="H7" s="7">
         <v>16</v>
@@ -5070,13 +5124,13 @@
         <v>11396</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>315</v>
+        <v>334</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>316</v>
+        <v>335</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>317</v>
+        <v>262</v>
       </c>
       <c r="M7" s="7">
         <v>22</v>
@@ -5085,13 +5139,13 @@
         <v>19130</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>318</v>
+        <v>227</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>319</v>
+        <v>336</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>320</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5106,13 +5160,13 @@
         <v>537683</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>321</v>
+        <v>337</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>200</v>
+        <v>338</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>322</v>
+        <v>339</v>
       </c>
       <c r="H8" s="7">
         <v>977</v>
@@ -5121,13 +5175,13 @@
         <v>605114</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>323</v>
+        <v>340</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>324</v>
+        <v>271</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="M8" s="7">
         <v>1579</v>
@@ -5136,13 +5190,13 @@
         <v>1142797</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>326</v>
+        <v>236</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>327</v>
+        <v>138</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5210,13 +5264,13 @@
         <v>20708</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="H10" s="7">
         <v>33</v>
@@ -5225,13 +5279,13 @@
         <v>21445</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>124</v>
+        <v>348</v>
       </c>
       <c r="M10" s="7">
         <v>56</v>
@@ -5240,13 +5294,13 @@
         <v>42153</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>11</v>
+        <v>351</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5261,13 +5315,13 @@
         <v>1009239</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>337</v>
+        <v>353</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="H11" s="7">
         <v>1466</v>
@@ -5276,13 +5330,13 @@
         <v>1026243</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>339</v>
+        <v>355</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>132</v>
+        <v>356</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="M11" s="7">
         <v>2399</v>
@@ -5291,13 +5345,13 @@
         <v>2035483</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>341</v>
+        <v>358</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>21</v>
+        <v>359</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>342</v>
+        <v>360</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5353,7 +5407,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5365,13 +5419,13 @@
         <v>21365</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>344</v>
+        <v>17</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>90</v>
+        <v>361</v>
       </c>
       <c r="H13" s="7">
         <v>42</v>
@@ -5380,13 +5434,13 @@
         <v>27478</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>345</v>
+        <v>362</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>344</v>
+        <v>363</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>346</v>
+        <v>364</v>
       </c>
       <c r="M13" s="7">
         <v>67</v>
@@ -5395,13 +5449,13 @@
         <v>48843</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>347</v>
+        <v>365</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>348</v>
+        <v>366</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>349</v>
+        <v>367</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5413,16 +5467,16 @@
         <v>649</v>
       </c>
       <c r="D14" s="7">
-        <v>703907</v>
+        <v>703908</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>99</v>
+        <v>368</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>351</v>
+        <v>27</v>
       </c>
       <c r="H14" s="7">
         <v>994</v>
@@ -5431,13 +5485,13 @@
         <v>838353</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>353</v>
+        <v>370</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>351</v>
+        <v>371</v>
       </c>
       <c r="M14" s="7">
         <v>1643</v>
@@ -5446,13 +5500,13 @@
         <v>1542261</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>354</v>
+        <v>372</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>355</v>
+        <v>373</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5464,7 +5518,7 @@
         <v>674</v>
       </c>
       <c r="D15" s="7">
-        <v>725272</v>
+        <v>725273</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5508,7 +5562,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5520,13 +5574,13 @@
         <v>27735</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>188</v>
+        <v>375</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>344</v>
+        <v>376</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>290</v>
+        <v>377</v>
       </c>
       <c r="H16" s="7">
         <v>47</v>
@@ -5535,13 +5589,13 @@
         <v>34248</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>140</v>
+        <v>262</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>357</v>
+        <v>378</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>358</v>
+        <v>379</v>
       </c>
       <c r="M16" s="7">
         <v>75</v>
@@ -5550,13 +5604,13 @@
         <v>61983</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>359</v>
+        <v>265</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>361</v>
+        <v>305</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5571,13 +5625,13 @@
         <v>927461</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>197</v>
+        <v>381</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>295</v>
+        <v>382</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>351</v>
+        <v>383</v>
       </c>
       <c r="H17" s="7">
         <v>1500</v>
@@ -5586,13 +5640,13 @@
         <v>1103178</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>149</v>
+        <v>271</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>362</v>
+        <v>384</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>363</v>
+        <v>385</v>
       </c>
       <c r="M17" s="7">
         <v>2466</v>
@@ -5601,13 +5655,13 @@
         <v>2030638</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>364</v>
+        <v>273</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>365</v>
+        <v>314</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>366</v>
+        <v>386</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5675,13 +5729,13 @@
         <v>78831</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>367</v>
+        <v>387</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>368</v>
+        <v>388</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>140</v>
+        <v>265</v>
       </c>
       <c r="H19" s="7">
         <v>139</v>
@@ -5690,13 +5744,13 @@
         <v>94983</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>369</v>
+        <v>389</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>370</v>
+        <v>390</v>
       </c>
       <c r="M19" s="7">
         <v>222</v>
@@ -5705,13 +5759,13 @@
         <v>173814</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>371</v>
+        <v>391</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>372</v>
+        <v>232</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5726,28 +5780,28 @@
         <v>3277281</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>373</v>
+        <v>392</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>149</v>
+        <v>273</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>374</v>
+        <v>393</v>
       </c>
       <c r="H20" s="7">
         <v>5176</v>
       </c>
       <c r="I20" s="7">
-        <v>3701739</v>
+        <v>3701740</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>375</v>
+        <v>394</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>376</v>
+        <v>395</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="M20" s="7">
         <v>8441</v>
@@ -5756,13 +5810,13 @@
         <v>6979020</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>377</v>
+        <v>396</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>378</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5789,7 +5843,7 @@
         <v>5315</v>
       </c>
       <c r="I21" s="7">
-        <v>3796722</v>
+        <v>3796723</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -5818,7 +5872,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Hacinamiento_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Hacinamiento_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{48FB26FE-1E82-43BC-A914-875947880987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{739CBF67-2B67-4331-967F-0FB0BC08D310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C0DCDD9E-883D-4E0C-84B3-7FA6DF0DEBE8}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{FD186D9D-A6B1-48B3-B729-726CCF53744D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="342">
   <si>
     <t>Hogares con dos o más personas por habitación en 2007 (Tasa respuesta: 99,71%)</t>
   </si>
@@ -68,1168 +68,1003 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Hogares con dos o más personas por habitación en 2012 (Tasa respuesta: 99,62%)</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>Hogares con dos o más personas por habitación en 2016 (Tasa respuesta: 99,47%)</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>Hogares con dos o más personas por habitación en 2023 (Tasa respuesta: 99,08%)</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
     <t>2,78%</t>
   </si>
   <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>No</t>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
   </si>
   <si>
     <t>97,22%</t>
   </si>
   <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
+    <t>99,22%</t>
   </si>
   <si>
     <t>97,83%</t>
   </si>
   <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Hogares con dos o más personas por habitación en 2012 (Tasa respuesta: 99,62%)</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>Hogares con dos o más personas por habitación en 2016 (Tasa respuesta: 99,47%)</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
   </si>
   <si>
     <t>2,83%</t>
   </si>
   <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
   </si>
   <si>
     <t>97,17%</t>
   </si>
   <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>Hogares con dos o más personas por habitación en 2023 (Tasa respuesta: 99,08%)</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
+    <t>98,05%</t>
   </si>
 </sst>
 </file>
@@ -1641,8 +1476,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE33B239-AE8E-4D8B-9407-5B38D1D43EC6}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D9BBC17-6176-4153-81A9-08125DCE821E}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1759,10 +1594,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="D4" s="7">
-        <v>3183</v>
+        <v>24300</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1774,10 +1609,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="I4" s="7">
-        <v>851</v>
+        <v>36581</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1789,10 +1624,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="N4" s="7">
-        <v>4034</v>
+        <v>60880</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1810,10 +1645,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>101</v>
+        <v>659</v>
       </c>
       <c r="D5" s="7">
-        <v>111117</v>
+        <v>666672</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1825,10 +1660,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>127</v>
+        <v>659</v>
       </c>
       <c r="I5" s="7">
-        <v>111904</v>
+        <v>650775</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1840,10 +1675,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>228</v>
+        <v>1318</v>
       </c>
       <c r="N5" s="7">
-        <v>223021</v>
+        <v>1317448</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1861,10 +1696,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>104</v>
+        <v>680</v>
       </c>
       <c r="D6" s="7">
-        <v>114300</v>
+        <v>690972</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1876,10 +1711,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>128</v>
+        <v>695</v>
       </c>
       <c r="I6" s="7">
-        <v>112755</v>
+        <v>687356</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1891,10 +1726,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>232</v>
+        <v>1375</v>
       </c>
       <c r="N6" s="7">
-        <v>227055</v>
+        <v>1378328</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1914,10 +1749,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="D7" s="7">
-        <v>21116</v>
+        <v>56030</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1929,10 +1764,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="I7" s="7">
-        <v>35730</v>
+        <v>63226</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1944,10 +1779,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="N7" s="7">
-        <v>56846</v>
+        <v>119256</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1965,10 +1800,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>558</v>
+        <v>842</v>
       </c>
       <c r="D8" s="7">
-        <v>555555</v>
+        <v>901913</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1980,10 +1815,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>532</v>
+        <v>850</v>
       </c>
       <c r="I8" s="7">
-        <v>538871</v>
+        <v>902969</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1995,10 +1830,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>1090</v>
+        <v>1692</v>
       </c>
       <c r="N8" s="7">
-        <v>1094426</v>
+        <v>1804881</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2016,10 +1851,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>576</v>
+        <v>893</v>
       </c>
       <c r="D9" s="7">
-        <v>576671</v>
+        <v>957943</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2031,10 +1866,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>567</v>
+        <v>906</v>
       </c>
       <c r="I9" s="7">
-        <v>574601</v>
+        <v>966195</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2046,10 +1881,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1143</v>
+        <v>1799</v>
       </c>
       <c r="N9" s="7">
-        <v>1151272</v>
+        <v>1924137</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2069,10 +1904,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="D10" s="7">
-        <v>56030</v>
+        <v>24327</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2084,10 +1919,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="I10" s="7">
-        <v>63226</v>
+        <v>38276</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2099,10 +1934,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>107</v>
+        <v>58</v>
       </c>
       <c r="N10" s="7">
-        <v>119256</v>
+        <v>62602</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2120,10 +1955,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>842</v>
+        <v>618</v>
       </c>
       <c r="D11" s="7">
-        <v>901913</v>
+        <v>653196</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2135,10 +1970,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>850</v>
+        <v>659</v>
       </c>
       <c r="I11" s="7">
-        <v>902969</v>
+        <v>644765</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2150,10 +1985,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>1692</v>
+        <v>1277</v>
       </c>
       <c r="N11" s="7">
-        <v>1804881</v>
+        <v>1297963</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2171,10 +2006,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>893</v>
+        <v>640</v>
       </c>
       <c r="D12" s="7">
-        <v>957943</v>
+        <v>677523</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2186,10 +2021,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>906</v>
+        <v>695</v>
       </c>
       <c r="I12" s="7">
-        <v>966195</v>
+        <v>683041</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2201,10 +2036,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1799</v>
+        <v>1335</v>
       </c>
       <c r="N12" s="7">
-        <v>1924137</v>
+        <v>1360565</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2224,49 +2059,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="D13" s="7">
-        <v>24327</v>
+        <v>52650</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>60</v>
+      </c>
+      <c r="I13" s="7">
+        <v>62978</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H13" s="7">
-        <v>36</v>
-      </c>
-      <c r="I13" s="7">
-        <v>38276</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>112</v>
+      </c>
+      <c r="N13" s="7">
+        <v>115628</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="M13" s="7">
-        <v>58</v>
-      </c>
-      <c r="N13" s="7">
-        <v>62602</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2275,49 +2110,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>618</v>
+        <v>939</v>
       </c>
       <c r="D14" s="7">
-        <v>653196</v>
+        <v>887035</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>932</v>
+      </c>
+      <c r="I14" s="7">
+        <v>970712</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H14" s="7">
-        <v>659</v>
-      </c>
-      <c r="I14" s="7">
-        <v>644766</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>1871</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1857747</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="M14" s="7">
-        <v>1277</v>
-      </c>
-      <c r="N14" s="7">
-        <v>1297963</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2326,10 +2161,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>640</v>
+        <v>991</v>
       </c>
       <c r="D15" s="7">
-        <v>677523</v>
+        <v>939685</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2341,10 +2176,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>695</v>
+        <v>992</v>
       </c>
       <c r="I15" s="7">
-        <v>683042</v>
+        <v>1033690</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2356,10 +2191,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1335</v>
+        <v>1983</v>
       </c>
       <c r="N15" s="7">
-        <v>1360565</v>
+        <v>1973375</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2373,55 +2208,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>52</v>
+        <v>146</v>
       </c>
       <c r="D16" s="7">
-        <v>52650</v>
+        <v>157307</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H16" s="7">
+        <v>188</v>
+      </c>
+      <c r="I16" s="7">
+        <v>201060</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="H16" s="7">
-        <v>60</v>
-      </c>
-      <c r="I16" s="7">
-        <v>62978</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>334</v>
+      </c>
+      <c r="N16" s="7">
+        <v>358366</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="M16" s="7">
-        <v>112</v>
-      </c>
-      <c r="N16" s="7">
-        <v>115628</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2430,49 +2265,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>939</v>
+        <v>3058</v>
       </c>
       <c r="D17" s="7">
-        <v>887035</v>
+        <v>3108815</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H17" s="7">
+        <v>3100</v>
+      </c>
+      <c r="I17" s="7">
+        <v>3169222</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="H17" s="7">
-        <v>932</v>
-      </c>
-      <c r="I17" s="7">
-        <v>970712</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>6158</v>
+      </c>
+      <c r="N17" s="7">
+        <v>6278038</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1871</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1857747</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2481,10 +2316,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>991</v>
+        <v>3204</v>
       </c>
       <c r="D18" s="7">
-        <v>939685</v>
+        <v>3266122</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2496,10 +2331,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>992</v>
+        <v>3288</v>
       </c>
       <c r="I18" s="7">
-        <v>1033690</v>
+        <v>3370282</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2511,10 +2346,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1983</v>
+        <v>6492</v>
       </c>
       <c r="N18" s="7">
-        <v>1973375</v>
+        <v>6636404</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2527,171 +2362,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>146</v>
-      </c>
-      <c r="D19" s="7">
-        <v>157307</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="H19" s="7">
-        <v>188</v>
-      </c>
-      <c r="I19" s="7">
-        <v>201060</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="M19" s="7">
-        <v>334</v>
-      </c>
-      <c r="N19" s="7">
-        <v>358366</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3058</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3108815</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3100</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3169222</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6158</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6278038</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3204</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3266122</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3288</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3370282</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6492</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6636404</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>121</v>
+      <c r="A19" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2704,8 +2383,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{193BE4BE-7331-4466-A563-3187E473F1ED}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D0702FC-78DF-4173-94CF-9A13636A3198}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2721,7 +2400,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2822,49 +2501,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="D4" s="7">
-        <v>3189</v>
+        <v>32236</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="H4" s="7">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="I4" s="7">
-        <v>3323</v>
+        <v>28955</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="M4" s="7">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="N4" s="7">
-        <v>6512</v>
+        <v>61191</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>131</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2873,49 +2552,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>641</v>
+      </c>
+      <c r="D5" s="7">
+        <v>669469</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H5" s="7">
+        <v>618</v>
+      </c>
+      <c r="I5" s="7">
+        <v>663812</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="D5" s="7">
-        <v>110812</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="H5" s="7">
-        <v>94</v>
-      </c>
-      <c r="I5" s="7">
-        <v>106427</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>136</v>
-      </c>
       <c r="L5" s="7" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="M5" s="7">
-        <v>210</v>
+        <v>1259</v>
       </c>
       <c r="N5" s="7">
-        <v>217239</v>
+        <v>1333280</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>139</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2924,10 +2603,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>120</v>
+        <v>672</v>
       </c>
       <c r="D6" s="7">
-        <v>114001</v>
+        <v>701705</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2939,10 +2618,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>97</v>
+        <v>646</v>
       </c>
       <c r="I6" s="7">
-        <v>109750</v>
+        <v>692767</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2954,10 +2633,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>217</v>
+        <v>1318</v>
       </c>
       <c r="N6" s="7">
-        <v>223751</v>
+        <v>1394471</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2977,49 +2656,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="D7" s="7">
-        <v>29046</v>
+        <v>45971</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>38</v>
+        <v>120</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="H7" s="7">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="I7" s="7">
-        <v>25632</v>
+        <v>62547</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="M7" s="7">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="N7" s="7">
-        <v>54679</v>
+        <v>108517</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3028,49 +2707,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>525</v>
+        <v>889</v>
       </c>
       <c r="D8" s="7">
-        <v>558658</v>
+        <v>968814</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>47</v>
+        <v>129</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="H8" s="7">
-        <v>524</v>
+        <v>881</v>
       </c>
       <c r="I8" s="7">
-        <v>557385</v>
+        <v>968587</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="M8" s="7">
-        <v>1049</v>
+        <v>1770</v>
       </c>
       <c r="N8" s="7">
-        <v>1116041</v>
+        <v>1937402</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3079,10 +2758,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>552</v>
+        <v>933</v>
       </c>
       <c r="D9" s="7">
-        <v>587704</v>
+        <v>1014785</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3094,10 +2773,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>549</v>
+        <v>939</v>
       </c>
       <c r="I9" s="7">
-        <v>583017</v>
+        <v>1031134</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3109,10 +2788,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1101</v>
+        <v>1872</v>
       </c>
       <c r="N9" s="7">
-        <v>1170720</v>
+        <v>2045919</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3132,49 +2811,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D10" s="7">
-        <v>45971</v>
+        <v>45972</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="H10" s="7">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="I10" s="7">
-        <v>62547</v>
+        <v>72238</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="M10" s="7">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="N10" s="7">
-        <v>108517</v>
+        <v>118210</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3183,49 +2862,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>889</v>
+        <v>644</v>
       </c>
       <c r="D11" s="7">
-        <v>968815</v>
+        <v>706951</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="H11" s="7">
-        <v>881</v>
+        <v>637</v>
       </c>
       <c r="I11" s="7">
-        <v>968587</v>
+        <v>700857</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="M11" s="7">
-        <v>1770</v>
+        <v>1281</v>
       </c>
       <c r="N11" s="7">
-        <v>1937402</v>
+        <v>1407807</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3234,10 +2913,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>933</v>
+        <v>685</v>
       </c>
       <c r="D12" s="7">
-        <v>1014786</v>
+        <v>752923</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3249,10 +2928,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>939</v>
+        <v>702</v>
       </c>
       <c r="I12" s="7">
-        <v>1031134</v>
+        <v>773095</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3264,10 +2943,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1872</v>
+        <v>1387</v>
       </c>
       <c r="N12" s="7">
-        <v>2045919</v>
+        <v>1526017</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3287,49 +2966,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D13" s="7">
-        <v>45972</v>
+        <v>38172</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="H13" s="7">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="I13" s="7">
-        <v>72238</v>
+        <v>55959</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="M13" s="7">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="N13" s="7">
-        <v>118210</v>
+        <v>94131</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3338,49 +3017,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>644</v>
+        <v>868</v>
       </c>
       <c r="D14" s="7">
-        <v>706951</v>
+        <v>906535</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="H14" s="7">
-        <v>637</v>
+        <v>943</v>
       </c>
       <c r="I14" s="7">
-        <v>700857</v>
+        <v>990727</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="M14" s="7">
-        <v>1281</v>
+        <v>1811</v>
       </c>
       <c r="N14" s="7">
-        <v>1407808</v>
+        <v>1897261</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3389,10 +3068,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>685</v>
+        <v>907</v>
       </c>
       <c r="D15" s="7">
-        <v>752923</v>
+        <v>944707</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3404,10 +3083,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>702</v>
+        <v>998</v>
       </c>
       <c r="I15" s="7">
-        <v>773095</v>
+        <v>1046686</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3419,10 +3098,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1387</v>
+        <v>1905</v>
       </c>
       <c r="N15" s="7">
-        <v>1526018</v>
+        <v>1991392</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3436,55 +3115,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>39</v>
+        <v>155</v>
       </c>
       <c r="D16" s="7">
-        <v>38172</v>
+        <v>162350</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>193</v>
+        <v>73</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="H16" s="7">
-        <v>55</v>
+        <v>206</v>
       </c>
       <c r="I16" s="7">
-        <v>55959</v>
+        <v>219699</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>196</v>
+        <v>38</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="M16" s="7">
-        <v>94</v>
+        <v>361</v>
       </c>
       <c r="N16" s="7">
-        <v>94131</v>
+        <v>382049</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3493,49 +3172,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>868</v>
+        <v>3042</v>
       </c>
       <c r="D17" s="7">
-        <v>906535</v>
+        <v>3251770</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>202</v>
+        <v>82</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="H17" s="7">
-        <v>943</v>
+        <v>3079</v>
       </c>
       <c r="I17" s="7">
-        <v>990727</v>
+        <v>3323982</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>205</v>
+        <v>47</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c r="M17" s="7">
-        <v>1811</v>
+        <v>6121</v>
       </c>
       <c r="N17" s="7">
-        <v>1897261</v>
+        <v>6575752</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>209</v>
+        <v>186</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3544,10 +3223,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>907</v>
+        <v>3197</v>
       </c>
       <c r="D18" s="7">
-        <v>944707</v>
+        <v>3414120</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3559,10 +3238,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>998</v>
+        <v>3285</v>
       </c>
       <c r="I18" s="7">
-        <v>1046686</v>
+        <v>3543681</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3574,10 +3253,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1905</v>
+        <v>6482</v>
       </c>
       <c r="N18" s="7">
-        <v>1991392</v>
+        <v>6957801</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3590,171 +3269,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>155</v>
-      </c>
-      <c r="D19" s="7">
-        <v>162350</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="H19" s="7">
-        <v>206</v>
-      </c>
-      <c r="I19" s="7">
-        <v>219699</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="M19" s="7">
-        <v>361</v>
-      </c>
-      <c r="N19" s="7">
-        <v>382049</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3042</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3251770</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3079</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3323982</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6121</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6575751</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3197</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3414120</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3285</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3543681</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6482</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6957800</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>121</v>
+      <c r="A19" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3767,8 +3290,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF55E2FF-9121-4E05-8178-F51F16864C2E}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3FEAC6-D78E-4F8C-84A4-328866EB0C8D}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3784,7 +3307,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>225</v>
+        <v>188</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3885,49 +3408,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="D4" s="7">
-        <v>6324</v>
+        <v>31651</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>226</v>
+        <v>189</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>227</v>
+        <v>190</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>228</v>
+        <v>191</v>
       </c>
       <c r="H4" s="7">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="I4" s="7">
-        <v>3837</v>
+        <v>27464</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>229</v>
+        <v>192</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>193</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>230</v>
+        <v>75</v>
       </c>
       <c r="M4" s="7">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="N4" s="7">
-        <v>10161</v>
+        <v>59115</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>231</v>
+        <v>110</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>233</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3936,49 +3459,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>108</v>
+        <v>624</v>
       </c>
       <c r="D5" s="7">
-        <v>110222</v>
+        <v>642103</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="H5" s="7">
-        <v>111</v>
+        <v>637</v>
       </c>
       <c r="I5" s="7">
-        <v>109523</v>
+        <v>644530</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>238</v>
+        <v>83</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>24</v>
+        <v>199</v>
       </c>
       <c r="M5" s="7">
-        <v>219</v>
+        <v>1261</v>
       </c>
       <c r="N5" s="7">
-        <v>219745</v>
+        <v>1286633</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>239</v>
+        <v>118</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>240</v>
+        <v>94</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>241</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3987,10 +3510,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>113</v>
+        <v>651</v>
       </c>
       <c r="D6" s="7">
-        <v>116546</v>
+        <v>673754</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4002,10 +3525,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>115</v>
+        <v>665</v>
       </c>
       <c r="I6" s="7">
-        <v>113360</v>
+        <v>671994</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4017,10 +3540,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>228</v>
+        <v>1316</v>
       </c>
       <c r="N6" s="7">
-        <v>229906</v>
+        <v>1345748</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4040,49 +3563,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D7" s="7">
-        <v>25328</v>
+        <v>36943</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>242</v>
+        <v>201</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>243</v>
+        <v>202</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>244</v>
+        <v>203</v>
       </c>
       <c r="H7" s="7">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="I7" s="7">
-        <v>23627</v>
+        <v>41779</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>245</v>
+        <v>204</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>246</v>
+        <v>205</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>247</v>
+        <v>206</v>
       </c>
       <c r="M7" s="7">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="N7" s="7">
-        <v>48954</v>
+        <v>78722</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>249</v>
+        <v>208</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>51</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4091,49 +3614,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>516</v>
+        <v>915</v>
       </c>
       <c r="D8" s="7">
-        <v>531880</v>
+        <v>980868</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>250</v>
+        <v>209</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>251</v>
+        <v>210</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>252</v>
+        <v>211</v>
       </c>
       <c r="H8" s="7">
-        <v>526</v>
+        <v>933</v>
       </c>
       <c r="I8" s="7">
-        <v>535007</v>
+        <v>996888</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>253</v>
+        <v>212</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>254</v>
+        <v>213</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>255</v>
+        <v>214</v>
       </c>
       <c r="M8" s="7">
-        <v>1042</v>
+        <v>1848</v>
       </c>
       <c r="N8" s="7">
-        <v>1066888</v>
+        <v>1977756</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>256</v>
+        <v>215</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>60</v>
+        <v>171</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>257</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4142,10 +3665,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>538</v>
+        <v>947</v>
       </c>
       <c r="D9" s="7">
-        <v>557208</v>
+        <v>1017811</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4157,10 +3680,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>550</v>
+        <v>974</v>
       </c>
       <c r="I9" s="7">
-        <v>558634</v>
+        <v>1038667</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4172,10 +3695,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1088</v>
+        <v>1921</v>
       </c>
       <c r="N9" s="7">
-        <v>1115842</v>
+        <v>2056478</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4195,49 +3718,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D10" s="7">
-        <v>36943</v>
+        <v>45410</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>258</v>
+        <v>217</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>259</v>
+        <v>218</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>260</v>
+        <v>219</v>
       </c>
       <c r="H10" s="7">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="I10" s="7">
-        <v>41779</v>
+        <v>50681</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>261</v>
+        <v>220</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>262</v>
+        <v>221</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>263</v>
+        <v>37</v>
       </c>
       <c r="M10" s="7">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="N10" s="7">
-        <v>78722</v>
+        <v>96091</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>264</v>
+        <v>222</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>265</v>
+        <v>36</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4246,49 +3769,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>915</v>
+        <v>653</v>
       </c>
       <c r="D11" s="7">
-        <v>980868</v>
+        <v>709198</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>266</v>
+        <v>224</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>267</v>
+        <v>225</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>268</v>
+        <v>226</v>
       </c>
       <c r="H11" s="7">
-        <v>933</v>
+        <v>684</v>
       </c>
       <c r="I11" s="7">
-        <v>996888</v>
+        <v>730140</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>269</v>
+        <v>227</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>270</v>
+        <v>45</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>271</v>
+        <v>228</v>
       </c>
       <c r="M11" s="7">
-        <v>1848</v>
+        <v>1337</v>
       </c>
       <c r="N11" s="7">
-        <v>1977756</v>
+        <v>1439337</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>272</v>
+        <v>229</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>273</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4297,10 +3820,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>947</v>
+        <v>692</v>
       </c>
       <c r="D12" s="7">
-        <v>1017811</v>
+        <v>754608</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4312,10 +3835,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>974</v>
+        <v>732</v>
       </c>
       <c r="I12" s="7">
-        <v>1038667</v>
+        <v>780821</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4327,10 +3850,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1921</v>
+        <v>1424</v>
       </c>
       <c r="N12" s="7">
-        <v>2056478</v>
+        <v>1535428</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4350,49 +3873,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D13" s="7">
-        <v>45410</v>
+        <v>31119</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>36</v>
+        <v>232</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>274</v>
+        <v>233</v>
       </c>
       <c r="H13" s="7">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="I13" s="7">
-        <v>50681</v>
+        <v>40392</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>275</v>
+        <v>234</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>276</v>
+        <v>235</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>56</v>
+        <v>236</v>
       </c>
       <c r="M13" s="7">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="N13" s="7">
-        <v>96091</v>
+        <v>71510</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>277</v>
+        <v>237</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>55</v>
+        <v>238</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>278</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4401,49 +3924,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>653</v>
+        <v>891</v>
       </c>
       <c r="D14" s="7">
-        <v>709198</v>
+        <v>897713</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>279</v>
+        <v>241</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>46</v>
+        <v>242</v>
       </c>
       <c r="H14" s="7">
-        <v>684</v>
+        <v>912</v>
       </c>
       <c r="I14" s="7">
-        <v>730139</v>
+        <v>994338</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>280</v>
+        <v>243</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>64</v>
+        <v>244</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>281</v>
+        <v>245</v>
       </c>
       <c r="M14" s="7">
-        <v>1337</v>
+        <v>1803</v>
       </c>
       <c r="N14" s="7">
-        <v>1439337</v>
+        <v>1892052</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>282</v>
+        <v>246</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>283</v>
+        <v>247</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>65</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4452,10 +3975,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>692</v>
+        <v>923</v>
       </c>
       <c r="D15" s="7">
-        <v>754608</v>
+        <v>928832</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4467,10 +3990,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>732</v>
+        <v>950</v>
       </c>
       <c r="I15" s="7">
-        <v>780820</v>
+        <v>1034730</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4482,10 +4005,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1424</v>
+        <v>1873</v>
       </c>
       <c r="N15" s="7">
-        <v>1535428</v>
+        <v>1963562</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4499,55 +4022,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="D16" s="7">
-        <v>31119</v>
+        <v>145123</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>284</v>
+        <v>249</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="H16" s="7">
+        <v>155</v>
+      </c>
+      <c r="I16" s="7">
+        <v>160315</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="M16" s="7">
         <v>285</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="H16" s="7">
-        <v>38</v>
-      </c>
-      <c r="I16" s="7">
-        <v>40392</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="M16" s="7">
-        <v>70</v>
-      </c>
       <c r="N16" s="7">
-        <v>71510</v>
+        <v>305438</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4556,49 +4079,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>891</v>
+        <v>3083</v>
       </c>
       <c r="D17" s="7">
-        <v>897713</v>
+        <v>3229881</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>293</v>
+        <v>258</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>294</v>
+        <v>259</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>295</v>
+        <v>260</v>
       </c>
       <c r="H17" s="7">
-        <v>912</v>
+        <v>3166</v>
       </c>
       <c r="I17" s="7">
-        <v>994338</v>
+        <v>3365896</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>296</v>
+        <v>261</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>297</v>
+        <v>262</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>298</v>
+        <v>263</v>
       </c>
       <c r="M17" s="7">
-        <v>1803</v>
+        <v>6249</v>
       </c>
       <c r="N17" s="7">
-        <v>1892052</v>
+        <v>6595778</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>299</v>
+        <v>264</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>300</v>
+        <v>265</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>301</v>
+        <v>266</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4607,10 +4130,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>923</v>
+        <v>3213</v>
       </c>
       <c r="D18" s="7">
-        <v>928832</v>
+        <v>3375004</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4622,10 +4145,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>950</v>
+        <v>3321</v>
       </c>
       <c r="I18" s="7">
-        <v>1034730</v>
+        <v>3526211</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4637,10 +4160,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1873</v>
+        <v>6534</v>
       </c>
       <c r="N18" s="7">
-        <v>1963562</v>
+        <v>6901216</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4653,171 +4176,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>130</v>
-      </c>
-      <c r="D19" s="7">
-        <v>145123</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="H19" s="7">
-        <v>155</v>
-      </c>
-      <c r="I19" s="7">
-        <v>160315</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="M19" s="7">
-        <v>285</v>
-      </c>
-      <c r="N19" s="7">
-        <v>305438</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3083</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3229881</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3166</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3365896</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6249</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6595778</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3213</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3375004</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3321</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3526211</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6534</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6901216</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>121</v>
+      <c r="A19" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4830,8 +4197,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C55FBA1-F7F4-4927-831D-37688DA2706E}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFCA1940-1C3D-4CC7-B430-1A1800D71A16}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4847,7 +4214,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>318</v>
+        <v>267</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4948,49 +4315,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D4" s="7">
-        <v>1289</v>
+        <v>10520</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>319</v>
+        <v>268</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>15</v>
+        <v>269</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>320</v>
+        <v>236</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="I4" s="7">
-        <v>416</v>
+        <v>11458</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>321</v>
+        <v>270</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>15</v>
+        <v>271</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>322</v>
+        <v>272</v>
       </c>
       <c r="M4" s="7">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="N4" s="7">
-        <v>1705</v>
+        <v>21978</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>124</v>
+        <v>273</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>323</v>
+        <v>271</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>324</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4999,49 +4366,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>115</v>
+        <v>717</v>
       </c>
       <c r="D5" s="7">
-        <v>98991</v>
+        <v>619399</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>325</v>
+        <v>274</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>326</v>
+        <v>244</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>26</v>
+        <v>275</v>
       </c>
       <c r="H5" s="7">
-        <v>239</v>
+        <v>1216</v>
       </c>
       <c r="I5" s="7">
-        <v>128851</v>
+        <v>709126</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>327</v>
+        <v>276</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>26</v>
+        <v>278</v>
       </c>
       <c r="M5" s="7">
-        <v>354</v>
+        <v>1933</v>
       </c>
       <c r="N5" s="7">
-        <v>227842</v>
+        <v>1328525</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>134</v>
+        <v>279</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>329</v>
+        <v>214</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>330</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5050,10 +4417,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>116</v>
+        <v>724</v>
       </c>
       <c r="D6" s="7">
-        <v>100280</v>
+        <v>629919</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5065,10 +4432,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>240</v>
+        <v>1233</v>
       </c>
       <c r="I6" s="7">
-        <v>129267</v>
+        <v>720584</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5080,10 +4447,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>356</v>
+        <v>1957</v>
       </c>
       <c r="N6" s="7">
-        <v>229547</v>
+        <v>1350503</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5103,49 +4470,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D7" s="7">
-        <v>7734</v>
+        <v>20286</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>331</v>
+        <v>280</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>332</v>
+        <v>281</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>333</v>
+        <v>282</v>
       </c>
       <c r="H7" s="7">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I7" s="7">
-        <v>11396</v>
+        <v>20553</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>334</v>
+        <v>283</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>335</v>
+        <v>284</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>262</v>
+        <v>105</v>
       </c>
       <c r="M7" s="7">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="N7" s="7">
-        <v>19130</v>
+        <v>40838</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>227</v>
+        <v>285</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>336</v>
+        <v>286</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>129</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5154,49 +4521,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>602</v>
+        <v>933</v>
       </c>
       <c r="D8" s="7">
-        <v>537683</v>
+        <v>1163847</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>337</v>
+        <v>288</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>338</v>
+        <v>289</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>339</v>
+        <v>290</v>
       </c>
       <c r="H8" s="7">
-        <v>977</v>
+        <v>1466</v>
       </c>
       <c r="I8" s="7">
-        <v>605114</v>
+        <v>927184</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>340</v>
+        <v>291</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>271</v>
+        <v>114</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>341</v>
+        <v>292</v>
       </c>
       <c r="M8" s="7">
-        <v>1579</v>
+        <v>2399</v>
       </c>
       <c r="N8" s="7">
-        <v>1142797</v>
+        <v>2091031</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>236</v>
+        <v>293</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>138</v>
+        <v>294</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>342</v>
+        <v>295</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5205,10 +4572,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>608</v>
+        <v>956</v>
       </c>
       <c r="D9" s="7">
-        <v>545417</v>
+        <v>1184133</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5220,10 +4587,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>993</v>
+        <v>1499</v>
       </c>
       <c r="I9" s="7">
-        <v>616510</v>
+        <v>947737</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5235,10 +4602,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1601</v>
+        <v>2455</v>
       </c>
       <c r="N9" s="7">
-        <v>1161927</v>
+        <v>2131869</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5258,49 +4625,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D10" s="7">
-        <v>20708</v>
+        <v>20601</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>343</v>
+        <v>296</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>344</v>
+        <v>297</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>345</v>
+        <v>239</v>
       </c>
       <c r="H10" s="7">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="I10" s="7">
-        <v>21445</v>
+        <v>27373</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>346</v>
+        <v>208</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>347</v>
+        <v>298</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>348</v>
+        <v>299</v>
       </c>
       <c r="M10" s="7">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="N10" s="7">
-        <v>42153</v>
+        <v>47975</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>349</v>
+        <v>300</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>350</v>
+        <v>301</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>351</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5309,49 +4676,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>933</v>
+        <v>649</v>
       </c>
       <c r="D11" s="7">
-        <v>1009239</v>
+        <v>680637</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>352</v>
+        <v>302</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>353</v>
+        <v>247</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>354</v>
+        <v>303</v>
       </c>
       <c r="H11" s="7">
-        <v>1466</v>
+        <v>994</v>
       </c>
       <c r="I11" s="7">
-        <v>1026243</v>
+        <v>898507</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>355</v>
+        <v>216</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>356</v>
+        <v>304</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>357</v>
+        <v>305</v>
       </c>
       <c r="M11" s="7">
-        <v>2399</v>
+        <v>1643</v>
       </c>
       <c r="N11" s="7">
-        <v>2035483</v>
+        <v>1579143</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>358</v>
+        <v>306</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>359</v>
+        <v>79</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>360</v>
+        <v>307</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5360,10 +4727,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>956</v>
+        <v>674</v>
       </c>
       <c r="D12" s="7">
-        <v>1029947</v>
+        <v>701238</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5375,10 +4742,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1499</v>
+        <v>1036</v>
       </c>
       <c r="I12" s="7">
-        <v>1047688</v>
+        <v>925880</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5390,10 +4757,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2455</v>
+        <v>1710</v>
       </c>
       <c r="N12" s="7">
-        <v>2077636</v>
+        <v>1627118</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5413,49 +4780,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D13" s="7">
-        <v>21365</v>
+        <v>26442</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>348</v>
+        <v>308</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>17</v>
+        <v>309</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>361</v>
+        <v>310</v>
       </c>
       <c r="H13" s="7">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I13" s="7">
-        <v>27478</v>
+        <v>31602</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>362</v>
+        <v>157</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>363</v>
+        <v>311</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>364</v>
+        <v>312</v>
       </c>
       <c r="M13" s="7">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="N13" s="7">
-        <v>48843</v>
+        <v>58043</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>365</v>
+        <v>313</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>366</v>
+        <v>314</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>367</v>
+        <v>315</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5464,49 +4831,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>649</v>
+        <v>966</v>
       </c>
       <c r="D14" s="7">
-        <v>703908</v>
+        <v>890764</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>356</v>
+        <v>316</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>368</v>
+        <v>317</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>27</v>
+        <v>318</v>
       </c>
       <c r="H14" s="7">
-        <v>994</v>
+        <v>1500</v>
       </c>
       <c r="I14" s="7">
-        <v>838353</v>
+        <v>1051935</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>369</v>
+        <v>167</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>370</v>
+        <v>319</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>371</v>
+        <v>320</v>
       </c>
       <c r="M14" s="7">
-        <v>1643</v>
+        <v>2466</v>
       </c>
       <c r="N14" s="7">
-        <v>1542261</v>
+        <v>1942701</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>372</v>
+        <v>321</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>373</v>
+        <v>322</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>374</v>
+        <v>323</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5515,10 +4882,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>674</v>
+        <v>994</v>
       </c>
       <c r="D15" s="7">
-        <v>725273</v>
+        <v>917206</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5530,10 +4897,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1036</v>
+        <v>1547</v>
       </c>
       <c r="I15" s="7">
-        <v>865831</v>
+        <v>1083537</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5545,10 +4912,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1710</v>
+        <v>2541</v>
       </c>
       <c r="N15" s="7">
-        <v>1591104</v>
+        <v>2000744</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5562,55 +4929,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="D16" s="7">
-        <v>27735</v>
+        <v>77848</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>375</v>
+        <v>324</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>376</v>
+        <v>325</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>377</v>
+        <v>326</v>
       </c>
       <c r="H16" s="7">
-        <v>47</v>
+        <v>139</v>
       </c>
       <c r="I16" s="7">
-        <v>34248</v>
+        <v>90986</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>262</v>
+        <v>327</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>378</v>
+        <v>328</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>379</v>
+        <v>329</v>
       </c>
       <c r="M16" s="7">
-        <v>75</v>
+        <v>222</v>
       </c>
       <c r="N16" s="7">
-        <v>61983</v>
+        <v>168834</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>265</v>
+        <v>330</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>380</v>
+        <v>331</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>305</v>
+        <v>332</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5619,49 +4986,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>966</v>
+        <v>3265</v>
       </c>
       <c r="D17" s="7">
-        <v>927461</v>
+        <v>3354647</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>381</v>
+        <v>333</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>382</v>
+        <v>334</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>383</v>
+        <v>335</v>
       </c>
       <c r="H17" s="7">
-        <v>1500</v>
+        <v>5176</v>
       </c>
       <c r="I17" s="7">
-        <v>1103178</v>
+        <v>3586753</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>271</v>
+        <v>336</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>384</v>
+        <v>337</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>385</v>
+        <v>338</v>
       </c>
       <c r="M17" s="7">
-        <v>2466</v>
+        <v>8441</v>
       </c>
       <c r="N17" s="7">
-        <v>2030638</v>
+        <v>6941400</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>273</v>
+        <v>339</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>314</v>
+        <v>340</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>386</v>
+        <v>341</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5670,10 +5037,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>994</v>
+        <v>3348</v>
       </c>
       <c r="D18" s="7">
-        <v>955196</v>
+        <v>3432495</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5685,10 +5052,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1547</v>
+        <v>5315</v>
       </c>
       <c r="I18" s="7">
-        <v>1137426</v>
+        <v>3677739</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5700,10 +5067,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2541</v>
+        <v>8663</v>
       </c>
       <c r="N18" s="7">
-        <v>2092621</v>
+        <v>7110234</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5716,171 +5083,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>83</v>
-      </c>
-      <c r="D19" s="7">
-        <v>78831</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="H19" s="7">
-        <v>139</v>
-      </c>
-      <c r="I19" s="7">
-        <v>94983</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="M19" s="7">
-        <v>222</v>
-      </c>
-      <c r="N19" s="7">
-        <v>173814</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3265</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3277281</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="H20" s="7">
-        <v>5176</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3701740</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="M20" s="7">
-        <v>8441</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6979020</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3348</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3356112</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5315</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3796723</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8663</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7152834</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>121</v>
+      <c r="A19" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
